--- a/Code/Results/Cases/Case_3_95/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_95/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.18193398373152</v>
+        <v>27.93616396685348</v>
       </c>
       <c r="C2">
-        <v>13.32257854557133</v>
+        <v>9.124780832205763</v>
       </c>
       <c r="D2">
-        <v>5.902381874720368</v>
+        <v>4.316218585986169</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>66.48811589679892</v>
+        <v>65.45344463466692</v>
       </c>
       <c r="G2">
-        <v>2.134180232298624</v>
+        <v>3.803776099455128</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.848779011394178</v>
+        <v>10.59259957355561</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.520694205792382</v>
+        <v>12.14206506012712</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.8044473419444</v>
+        <v>27.81012124152216</v>
       </c>
       <c r="C3">
-        <v>12.31194009094488</v>
+        <v>8.873488018575655</v>
       </c>
       <c r="D3">
-        <v>5.56250522477306</v>
+        <v>4.185567368798859</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>63.38697487333874</v>
+        <v>64.70702755567935</v>
       </c>
       <c r="G3">
-        <v>2.149797306771226</v>
+        <v>3.808897594652299</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.828108697825712</v>
+        <v>10.59529149339129</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.482945275914378</v>
+        <v>12.18397200724808</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.95029225002129</v>
+        <v>27.7429978663978</v>
       </c>
       <c r="C4">
-        <v>11.66552763848659</v>
+        <v>8.720932190553775</v>
       </c>
       <c r="D4">
-        <v>5.348985741670267</v>
+        <v>4.103242631457853</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>61.46722521288891</v>
+        <v>64.25351847646543</v>
       </c>
       <c r="G4">
-        <v>2.159524665961718</v>
+        <v>3.81219990739955</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.817068060335902</v>
+        <v>10.59742139426621</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.465903972890713</v>
+        <v>12.21216942787957</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.60035389577469</v>
+        <v>27.71824816476131</v>
       </c>
       <c r="C5">
-        <v>11.39536552758124</v>
+        <v>8.659330999635383</v>
       </c>
       <c r="D5">
-        <v>5.260748751157675</v>
+        <v>4.069198488755617</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>60.68119810028869</v>
+        <v>64.07004628130055</v>
       </c>
       <c r="G5">
-        <v>2.163529568102786</v>
+        <v>3.81358545961158</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.812957491185591</v>
+        <v>10.5984090395837</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.460440925890317</v>
+        <v>12.22428010400713</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.5421436424986</v>
+        <v>27.71429630038424</v>
       </c>
       <c r="C6">
-        <v>11.35009156694104</v>
+        <v>8.649140223708169</v>
       </c>
       <c r="D6">
-        <v>5.246023086024363</v>
+        <v>4.063516533951025</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>60.55046433995436</v>
+        <v>64.0396653320991</v>
       </c>
       <c r="G6">
-        <v>2.164197217494234</v>
+        <v>3.813817940571028</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.812297673175939</v>
+        <v>10.59858025873673</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.459621515832195</v>
+        <v>12.22632851308558</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.94557999989805</v>
+        <v>27.7426535156204</v>
       </c>
       <c r="C7">
-        <v>11.66191173784167</v>
+        <v>8.720098948289007</v>
       </c>
       <c r="D7">
-        <v>5.347800710673685</v>
+        <v>4.102785463616801</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>61.45663919643324</v>
+        <v>64.25103852488024</v>
       </c>
       <c r="G7">
-        <v>2.159578504150955</v>
+        <v>3.81221843191948</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.817011083738979</v>
+        <v>10.59743422971065</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.465824377500032</v>
+        <v>12.21233024658281</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.70882353300243</v>
+        <v>27.89058782763919</v>
       </c>
       <c r="C8">
-        <v>12.97932986927998</v>
+        <v>9.037850613507763</v>
       </c>
       <c r="D8">
-        <v>5.786183012226604</v>
+        <v>4.271625813025349</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>65.42216174218201</v>
+        <v>65.19516462393614</v>
       </c>
       <c r="G8">
-        <v>2.139540171119305</v>
+        <v>3.805509370012468</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.841292394269469</v>
+        <v>10.59342857565785</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.506366566963248</v>
+        <v>12.1560025624465</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.09584208978651</v>
+        <v>28.2609927406265</v>
       </c>
       <c r="C9">
-        <v>15.36974786043758</v>
+        <v>9.66928789877379</v>
       </c>
       <c r="D9">
-        <v>6.609108691365345</v>
+        <v>4.584707133451374</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>73.07550046145008</v>
+        <v>67.07874340178684</v>
       </c>
       <c r="G9">
-        <v>2.101026420438062</v>
+        <v>3.793595950673619</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.903362631524608</v>
+        <v>10.58937114147143</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.637540458648655</v>
+        <v>12.06512288132661</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.7375405021589</v>
+        <v>28.5802526129279</v>
       </c>
       <c r="C10">
-        <v>17.0284087558779</v>
+        <v>10.13136126540055</v>
       </c>
       <c r="D10">
-        <v>7.195348274912497</v>
+        <v>4.802168934642752</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>78.64282167689034</v>
+        <v>68.47419865014346</v>
       </c>
       <c r="G10">
-        <v>2.072687023019824</v>
+        <v>3.785589449438366</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.959962787813908</v>
+        <v>10.5887232676665</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.769987622704225</v>
+        <v>12.01030223408555</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.95970222254482</v>
+        <v>28.7352552307332</v>
       </c>
       <c r="C11">
-        <v>17.76734462096436</v>
+        <v>10.33984797199868</v>
       </c>
       <c r="D11">
-        <v>7.459511768276818</v>
+        <v>4.898088323308341</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>81.17349725805241</v>
+        <v>69.10982222383942</v>
       </c>
       <c r="G11">
-        <v>2.059641046199892</v>
+        <v>3.782106662376856</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.988694911594349</v>
+        <v>10.58893903614533</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.839261350968055</v>
+        <v>11.98796015395249</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.42042825312229</v>
+        <v>28.79531103269106</v>
       </c>
       <c r="C12">
-        <v>18.04549063633573</v>
+        <v>10.41845111477407</v>
       </c>
       <c r="D12">
-        <v>7.559348971085879</v>
+        <v>4.933957944403954</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>82.13281805830152</v>
+        <v>69.35049006566916</v>
       </c>
       <c r="G12">
-        <v>2.054663763210665</v>
+        <v>3.780810552035176</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.000065030376764</v>
+        <v>10.5890944473739</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.86690938974706</v>
+        <v>11.97987332852969</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.32128183410776</v>
+        <v>28.78231721992222</v>
       </c>
       <c r="C13">
-        <v>17.9856510167801</v>
+        <v>10.40153942263282</v>
       </c>
       <c r="D13">
-        <v>7.537852820267746</v>
+        <v>4.926253233443818</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>81.9261411450688</v>
+        <v>69.29866156149377</v>
       </c>
       <c r="G13">
-        <v>2.055737627339151</v>
+        <v>3.781088683801099</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.997593392138928</v>
+        <v>10.58905769406243</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.860889820034005</v>
+        <v>11.98159834859755</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.99764338171286</v>
+        <v>28.74016907710896</v>
       </c>
       <c r="C14">
-        <v>17.7902577198957</v>
+        <v>10.34632218164196</v>
       </c>
       <c r="D14">
-        <v>7.467728246682609</v>
+        <v>4.901048528109516</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>81.25239202826374</v>
+        <v>69.12962353270878</v>
       </c>
       <c r="G14">
-        <v>2.059232400624418</v>
+        <v>3.781999575762421</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.989620130996448</v>
+        <v>10.58895034307999</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.841506848837723</v>
+        <v>11.98728735597372</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.79915884029741</v>
+        <v>28.71452780071476</v>
       </c>
       <c r="C15">
-        <v>17.67037465040615</v>
+        <v>10.31245211328141</v>
       </c>
       <c r="D15">
-        <v>7.42475511828144</v>
+        <v>4.885550348610819</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.8398781312152</v>
+        <v>69.02607472989907</v>
       </c>
       <c r="G15">
-        <v>2.061367732565399</v>
+        <v>3.782560480257702</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.984802073721806</v>
+        <v>10.58889419477089</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.829822434934931</v>
+        <v>11.99082070483835</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.65733557604421</v>
+        <v>28.57031562356884</v>
       </c>
       <c r="C16">
-        <v>16.9798499464713</v>
+        <v>10.11769296641164</v>
       </c>
       <c r="D16">
-        <v>7.178047130043148</v>
+        <v>4.795838073073522</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>78.47749769890015</v>
+        <v>68.43266309420352</v>
       </c>
       <c r="G16">
-        <v>2.073535298048469</v>
+        <v>3.785820250340016</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.958150070205395</v>
+        <v>10.58871946443709</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.765651619581636</v>
+        <v>12.01181460939016</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.95234641202234</v>
+        <v>28.48431718560718</v>
       </c>
       <c r="C17">
-        <v>16.55261277197705</v>
+        <v>9.997702063925027</v>
       </c>
       <c r="D17">
-        <v>7.026159720292764</v>
+        <v>4.740017263276957</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>77.02854599713375</v>
+        <v>68.06872994984374</v>
       </c>
       <c r="G17">
-        <v>2.080950492578755</v>
+        <v>3.787860716306696</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.942604137040965</v>
+        <v>10.58874323322628</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.728673728300033</v>
+        <v>12.02535884572398</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.54497958343881</v>
+        <v>28.43577563715466</v>
       </c>
       <c r="C18">
-        <v>16.3053693377262</v>
+        <v>9.92853070202553</v>
       </c>
       <c r="D18">
-        <v>6.938548615096679</v>
+        <v>4.707628853769751</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>76.1948658779099</v>
+        <v>67.85949155117206</v>
       </c>
       <c r="G18">
-        <v>2.085202038994402</v>
+        <v>3.789049353460193</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.933939219949428</v>
+        <v>10.58880493648406</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.708246193658048</v>
+        <v>12.03339347197049</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.40671158213958</v>
+        <v>28.41950006695965</v>
       </c>
       <c r="C19">
-        <v>16.22138234318109</v>
+        <v>9.905086897717393</v>
       </c>
       <c r="D19">
-        <v>6.908837760572756</v>
+        <v>4.696614975792401</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>75.9125153155299</v>
+        <v>67.78866636685576</v>
       </c>
       <c r="G19">
-        <v>2.086639632406137</v>
+        <v>3.789454389836797</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.931051276056248</v>
+        <v>10.58883406864225</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.701470976743662</v>
+        <v>12.03615581399492</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.02758333662248</v>
+        <v>28.4933767110677</v>
       </c>
       <c r="C20">
-        <v>16.59824517958923</v>
+        <v>10.01049217265084</v>
       </c>
       <c r="D20">
-        <v>7.042353144404802</v>
+        <v>4.745988802705607</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>77.18281052274929</v>
+        <v>68.10746339362638</v>
       </c>
       <c r="G20">
-        <v>2.080162625956398</v>
+        <v>3.787641952501858</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.944229986847509</v>
+        <v>10.58873572970701</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.732522239089081</v>
+        <v>12.02389174807073</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.0927537006104</v>
+        <v>28.7525124818663</v>
       </c>
       <c r="C21">
-        <v>17.84768976402039</v>
+        <v>10.36255097553127</v>
       </c>
       <c r="D21">
-        <v>7.488329299412285</v>
+        <v>4.908464209349709</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>81.45024869332586</v>
+        <v>69.17927605429624</v>
       </c>
       <c r="G21">
-        <v>2.058207040059083</v>
+        <v>3.781731408821096</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.991948234247062</v>
+        <v>10.58897987199505</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.847160631546993</v>
+        <v>11.98560621377018</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.43081358800908</v>
+        <v>28.92977495675559</v>
       </c>
       <c r="C22">
-        <v>18.65487534611823</v>
+        <v>10.59058316744923</v>
       </c>
       <c r="D22">
-        <v>7.77877048031097</v>
+        <v>5.012002935173273</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>84.24607287954665</v>
+        <v>69.87953135140289</v>
       </c>
       <c r="G22">
-        <v>2.043632594017628</v>
+        <v>3.778001022684562</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.0260274321316</v>
+        <v>10.58956917531445</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.930406063732514</v>
+        <v>11.96276237535708</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.71744558821251</v>
+        <v>28.83445925059422</v>
       </c>
       <c r="C23">
-        <v>18.22470565401443</v>
+        <v>10.46909729062549</v>
       </c>
       <c r="D23">
-        <v>7.623783711680159</v>
+        <v>4.956990996792294</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>82.75272368230301</v>
+        <v>69.50586182007207</v>
       </c>
       <c r="G23">
-        <v>2.051437591616328</v>
+        <v>3.779979935291779</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.007550816192378</v>
+        <v>10.58921523398175</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.885169965364371</v>
+        <v>11.97475517549612</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.99357518752097</v>
+        <v>28.48927809260732</v>
       </c>
       <c r="C24">
-        <v>16.57761985273081</v>
+        <v>10.00471033926207</v>
       </c>
       <c r="D24">
-        <v>7.035033009556512</v>
+        <v>4.743289990977026</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>77.11306967307294</v>
+        <v>68.08995201861028</v>
       </c>
       <c r="G24">
-        <v>2.080518855341571</v>
+        <v>3.787740807181795</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.94349409534758</v>
+        <v>10.58873897244208</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.73077974590524</v>
+        <v>12.02455425090205</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.1872105683113</v>
+        <v>28.15236496694595</v>
       </c>
       <c r="C25">
-        <v>14.74185529577847</v>
+        <v>9.498316466806047</v>
       </c>
       <c r="D25">
-        <v>6.390098334868806</v>
+        <v>4.50211165504471</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>71.01718412160645</v>
+        <v>66.56656485664114</v>
       </c>
       <c r="G25">
-        <v>2.11141047268197</v>
+        <v>3.796686959555316</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.884816982290117</v>
+        <v>10.59006035461987</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.596079861061561</v>
+        <v>12.08761083185621</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_95/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_95/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>27.93616396685348</v>
+        <v>24.18193398373154</v>
       </c>
       <c r="C2">
-        <v>9.124780832205763</v>
+        <v>13.32257854557145</v>
       </c>
       <c r="D2">
-        <v>4.316218585986169</v>
+        <v>5.902381874720356</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>65.45344463466692</v>
+        <v>66.48811589679894</v>
       </c>
       <c r="G2">
-        <v>3.803776099455128</v>
+        <v>2.134180232298883</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.59259957355561</v>
+        <v>6.84877901139429</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.14206506012712</v>
+        <v>6.52069420579247</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>27.81012124152216</v>
+        <v>22.80444734194444</v>
       </c>
       <c r="C3">
-        <v>8.873488018575655</v>
+        <v>12.31194009094485</v>
       </c>
       <c r="D3">
-        <v>4.185567368798859</v>
+        <v>5.562505224773006</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>64.70702755567935</v>
+        <v>63.38697487333885</v>
       </c>
       <c r="G3">
-        <v>3.808897594652299</v>
+        <v>2.149797306770962</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.59529149339129</v>
+        <v>6.828108697825646</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.18397200724808</v>
+        <v>6.482945275914412</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>27.7429978663978</v>
+        <v>21.95029225002137</v>
       </c>
       <c r="C4">
-        <v>8.720932190553775</v>
+        <v>11.66552763848672</v>
       </c>
       <c r="D4">
-        <v>4.103242631457853</v>
+        <v>5.348985741670345</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>64.25351847646543</v>
+        <v>61.46722521288876</v>
       </c>
       <c r="G4">
-        <v>3.81219990739955</v>
+        <v>2.159524665961718</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.59742139426621</v>
+        <v>6.817068060336032</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.21216942787957</v>
+        <v>6.465903972890695</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>27.71824816476131</v>
+        <v>21.60035389577458</v>
       </c>
       <c r="C5">
-        <v>8.659330999635383</v>
+        <v>11.39536552758122</v>
       </c>
       <c r="D5">
-        <v>4.069198488755617</v>
+        <v>5.260748751157673</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>64.07004628130055</v>
+        <v>60.68119810028879</v>
       </c>
       <c r="G5">
-        <v>3.81358545961158</v>
+        <v>2.163529568102664</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.5984090395837</v>
+        <v>6.812957491185516</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.22428010400713</v>
+        <v>6.460440925890359</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>27.71429630038424</v>
+        <v>21.54214364249847</v>
       </c>
       <c r="C6">
-        <v>8.649140223708169</v>
+        <v>11.35009156694093</v>
       </c>
       <c r="D6">
-        <v>4.063516533951025</v>
+        <v>5.246023086024471</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>64.0396653320991</v>
+        <v>60.55046433995437</v>
       </c>
       <c r="G6">
-        <v>3.813817940571028</v>
+        <v>2.164197217493967</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.59858025873673</v>
+        <v>6.812297673175928</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.22632851308558</v>
+        <v>6.4596215158322</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>27.7426535156204</v>
+        <v>21.945579999898</v>
       </c>
       <c r="C7">
-        <v>8.720098948289007</v>
+        <v>11.66191173784182</v>
       </c>
       <c r="D7">
-        <v>4.102785463616801</v>
+        <v>5.347800710673685</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>64.25103852488024</v>
+        <v>61.45663919643329</v>
       </c>
       <c r="G7">
-        <v>3.81221843191948</v>
+        <v>2.159578504150819</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.59743422971065</v>
+        <v>6.817011083738916</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.21233024658281</v>
+        <v>6.465824377499999</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27.89058782763919</v>
+        <v>23.70882353300249</v>
       </c>
       <c r="C8">
-        <v>9.037850613507763</v>
+        <v>12.97932986927982</v>
       </c>
       <c r="D8">
-        <v>4.271625813025349</v>
+        <v>5.786183012226524</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>65.19516462393614</v>
+        <v>65.4221617421818</v>
       </c>
       <c r="G8">
-        <v>3.805509370012468</v>
+        <v>2.139540171119309</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.59342857565785</v>
+        <v>6.841292394269494</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.1560025624465</v>
+        <v>6.506366566963298</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.2609927406265</v>
+        <v>27.09584208978646</v>
       </c>
       <c r="C9">
-        <v>9.66928789877379</v>
+        <v>15.36974786043757</v>
       </c>
       <c r="D9">
-        <v>4.584707133451374</v>
+        <v>6.609108691365316</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>67.07874340178684</v>
+        <v>73.07550046145019</v>
       </c>
       <c r="G9">
-        <v>3.793595950673619</v>
+        <v>2.101026420438062</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.58937114147143</v>
+        <v>6.903362631524615</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.06512288132661</v>
+        <v>6.637540458648636</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.5802526129279</v>
+        <v>29.73754050215892</v>
       </c>
       <c r="C10">
-        <v>10.13136126540055</v>
+        <v>17.028408755878</v>
       </c>
       <c r="D10">
-        <v>4.802168934642752</v>
+        <v>7.195348274912537</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>68.47419865014346</v>
+        <v>78.64282167689063</v>
       </c>
       <c r="G10">
-        <v>3.785589449438366</v>
+        <v>2.072687023019824</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.5887232676665</v>
+        <v>6.9599627878139</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.01030223408555</v>
+        <v>6.769987622704178</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.7352552307332</v>
+        <v>30.9597022225449</v>
       </c>
       <c r="C11">
-        <v>10.33984797199868</v>
+        <v>17.76734462096443</v>
       </c>
       <c r="D11">
-        <v>4.898088323308341</v>
+        <v>7.459511768276777</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>69.10982222383942</v>
+        <v>81.17349725805242</v>
       </c>
       <c r="G11">
-        <v>3.782106662376856</v>
+        <v>2.059641046199669</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.58893903614533</v>
+        <v>6.988694911594282</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.98796015395249</v>
+        <v>6.839261350968062</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.79531103269106</v>
+        <v>31.42042825312231</v>
       </c>
       <c r="C12">
-        <v>10.41845111477407</v>
+        <v>18.04549063633566</v>
       </c>
       <c r="D12">
-        <v>4.933957944403954</v>
+        <v>7.559348971085933</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>69.35049006566916</v>
+        <v>82.13281805830155</v>
       </c>
       <c r="G12">
-        <v>3.780810552035176</v>
+        <v>2.054663763210272</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.5890944473739</v>
+        <v>7.00006503037678</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.97987332852969</v>
+        <v>6.866909389747064</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.78231721992222</v>
+        <v>31.3212818341077</v>
       </c>
       <c r="C13">
-        <v>10.40153942263282</v>
+        <v>17.98565101678006</v>
       </c>
       <c r="D13">
-        <v>4.926253233443818</v>
+        <v>7.537852820267772</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>69.29866156149377</v>
+        <v>81.92614114506883</v>
       </c>
       <c r="G13">
-        <v>3.781088683801099</v>
+        <v>2.055737627339165</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.58905769406243</v>
+        <v>6.997593392138977</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.98159834859755</v>
+        <v>6.860889820033997</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.74016907710896</v>
+        <v>30.99764338171288</v>
       </c>
       <c r="C14">
-        <v>10.34632218164196</v>
+        <v>17.79025771989591</v>
       </c>
       <c r="D14">
-        <v>4.901048528109516</v>
+        <v>7.467728246682589</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>69.12962353270878</v>
+        <v>81.25239202826377</v>
       </c>
       <c r="G14">
-        <v>3.781999575762421</v>
+        <v>2.05923240062441</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.58895034307999</v>
+        <v>6.989620130996347</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.98728735597372</v>
+        <v>6.841506848837684</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.71452780071476</v>
+        <v>30.79915884029745</v>
       </c>
       <c r="C15">
-        <v>10.31245211328141</v>
+        <v>17.6703746504062</v>
       </c>
       <c r="D15">
-        <v>4.885550348610819</v>
+        <v>7.424755118281405</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>69.02607472989907</v>
+        <v>80.83987813121513</v>
       </c>
       <c r="G15">
-        <v>3.782560480257702</v>
+        <v>2.061367732565552</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.58889419477089</v>
+        <v>6.984802073721901</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.99082070483835</v>
+        <v>6.829822434934968</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.57031562356884</v>
+        <v>29.65733557604428</v>
       </c>
       <c r="C16">
-        <v>10.11769296641164</v>
+        <v>16.97984994647122</v>
       </c>
       <c r="D16">
-        <v>4.795838073073522</v>
+        <v>7.17804713004318</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>68.43266309420352</v>
+        <v>78.47749769890019</v>
       </c>
       <c r="G16">
-        <v>3.785820250340016</v>
+        <v>2.073535298048335</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.58871946443709</v>
+        <v>6.958150070205395</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.01181460939016</v>
+        <v>6.765651619581621</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.48431718560718</v>
+        <v>28.95234641202247</v>
       </c>
       <c r="C17">
-        <v>9.997702063925027</v>
+        <v>16.55261277197708</v>
       </c>
       <c r="D17">
-        <v>4.740017263276957</v>
+        <v>7.026159720292778</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>68.06872994984374</v>
+        <v>77.02854599713397</v>
       </c>
       <c r="G17">
-        <v>3.787860716306696</v>
+        <v>2.080950492578885</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.58874323322628</v>
+        <v>6.94260413704099</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.02535884572398</v>
+        <v>6.72867372830005</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.43577563715466</v>
+        <v>28.54497958343872</v>
       </c>
       <c r="C18">
-        <v>9.92853070202553</v>
+        <v>16.30536933772622</v>
       </c>
       <c r="D18">
-        <v>4.707628853769751</v>
+        <v>6.938548615096689</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>67.85949155117206</v>
+        <v>76.19486587791012</v>
       </c>
       <c r="G18">
-        <v>3.789049353460193</v>
+        <v>2.08520203899467</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.58880493648406</v>
+        <v>6.93393921994947</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.03339347197049</v>
+        <v>6.708246193658048</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.41950006695965</v>
+        <v>28.40671158213959</v>
       </c>
       <c r="C19">
-        <v>9.905086897717393</v>
+        <v>16.22138234318134</v>
       </c>
       <c r="D19">
-        <v>4.696614975792401</v>
+        <v>6.908837760572744</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>67.78866636685576</v>
+        <v>75.91251531553002</v>
       </c>
       <c r="G19">
-        <v>3.789454389836797</v>
+        <v>2.086639632405885</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.58883406864225</v>
+        <v>6.931051276056274</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.03615581399492</v>
+        <v>6.701470976743648</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.4933767110677</v>
+        <v>29.02758333662256</v>
       </c>
       <c r="C20">
-        <v>10.01049217265084</v>
+        <v>16.59824517958926</v>
       </c>
       <c r="D20">
-        <v>4.745988802705607</v>
+        <v>7.042353144404845</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>68.10746339362638</v>
+        <v>77.18281052274956</v>
       </c>
       <c r="G20">
-        <v>3.787641952501858</v>
+        <v>2.080162625956256</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.58873572970701</v>
+        <v>6.944229986847524</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.02389174807073</v>
+        <v>6.73252223908908</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.7525124818663</v>
+        <v>31.09275370061048</v>
       </c>
       <c r="C21">
-        <v>10.36255097553127</v>
+        <v>17.8476897640206</v>
       </c>
       <c r="D21">
-        <v>4.908464209349709</v>
+        <v>7.488329299412191</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>69.17927605429624</v>
+        <v>81.45024869332551</v>
       </c>
       <c r="G21">
-        <v>3.781731408821096</v>
+        <v>2.05820704005923</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.58897987199505</v>
+        <v>6.991948234247126</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.98560621377018</v>
+        <v>6.84716063154701</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.92977495675559</v>
+        <v>32.43081358800903</v>
       </c>
       <c r="C22">
-        <v>10.59058316744923</v>
+        <v>18.6548753461182</v>
       </c>
       <c r="D22">
-        <v>5.012002935173273</v>
+        <v>7.77877048031099</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>69.87953135140289</v>
+        <v>84.2460728795467</v>
       </c>
       <c r="G22">
-        <v>3.778001022684562</v>
+        <v>2.04363259401725</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.58956917531445</v>
+        <v>7.026027432131587</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.96276237535708</v>
+        <v>6.930406063732546</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.83445925059422</v>
+        <v>31.71744558821242</v>
       </c>
       <c r="C23">
-        <v>10.46909729062549</v>
+        <v>18.22470565401467</v>
       </c>
       <c r="D23">
-        <v>4.956990996792294</v>
+        <v>7.623783711680132</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>69.50586182007207</v>
+        <v>82.75272368230284</v>
       </c>
       <c r="G23">
-        <v>3.779979935291779</v>
+        <v>2.051437591616439</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.58921523398175</v>
+        <v>7.007550816192462</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.97475517549612</v>
+        <v>6.885169965364329</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.48927809260732</v>
+        <v>28.99357518752107</v>
       </c>
       <c r="C24">
-        <v>10.00471033926207</v>
+        <v>16.57761985273084</v>
       </c>
       <c r="D24">
-        <v>4.743289990977026</v>
+        <v>7.035033009556551</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>68.08995201861028</v>
+        <v>77.11306967307333</v>
       </c>
       <c r="G24">
-        <v>3.787740807181795</v>
+        <v>2.080518855341705</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.58873897244208</v>
+        <v>6.943494095347583</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.02455425090205</v>
+        <v>6.730779745905233</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.15236496694595</v>
+        <v>26.1872105683113</v>
       </c>
       <c r="C25">
-        <v>9.498316466806047</v>
+        <v>14.74185529577843</v>
       </c>
       <c r="D25">
-        <v>4.50211165504471</v>
+        <v>6.390098334868795</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>66.56656485664114</v>
+        <v>71.01718412160677</v>
       </c>
       <c r="G25">
-        <v>3.796686959555316</v>
+        <v>2.111410472681458</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.59006035461987</v>
+        <v>6.88481698229008</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.08761083185621</v>
+        <v>6.596079861061521</v>
       </c>
       <c r="M25">
         <v>0</v>
